--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>TestCases</t>
   </si>
@@ -278,15 +278,6 @@
     <t>ABCDEF</t>
   </si>
   <si>
-    <t>newtest1@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest2@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest3@gmail.com</t>
-  </si>
-  <si>
     <t>ramanasreddy@gmail.com</t>
   </si>
   <si>
@@ -294,6 +285,9 @@
   </si>
   <si>
     <t>ramsamabcxyz123@gmail.com</t>
+  </si>
+  <si>
+    <t>newramtest1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -767,23 +761,23 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="4" width="26.26953125" customWidth="1"/>
+    <col min="5" max="5" width="44.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" customWidth="1"/>
+    <col min="12" max="12" width="17.54296875" customWidth="1"/>
+    <col min="13" max="13" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
@@ -791,7 +785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
@@ -799,7 +793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>43</v>
       </c>
@@ -807,7 +801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
@@ -816,7 +810,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -833,7 +827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -850,7 +844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -867,7 +861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -884,7 +878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -901,7 +895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -918,7 +912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -940,7 +934,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -955,7 +949,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -966,7 +960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -975,7 +969,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -984,7 +978,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -993,7 +987,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1027,16 +1021,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>48</v>
       </c>
@@ -1044,12 +1038,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1066,23 +1060,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1102,9 +1096,9 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
@@ -1115,7 +1109,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>54</v>
       </c>
@@ -1137,14 +1131,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>54</v>
       </c>
@@ -1156,32 +1150,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
@@ -1228,9 +1222,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>70</v>
@@ -1272,109 +1266,14 @@
         <v>79</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="12" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>